--- a/BackTest/2020-01-20 BackTest LINK.xlsx
+++ b/BackTest/2020-01-20 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>-14796.104</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7359.190008465786</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7320.127408465786</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7792.438908465786</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7792.438908465786</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7707.047008465786</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7675.208108465787</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7675.208108465787</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7235.208108465787</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6928.403808465787</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8754.647008465787</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8623.737808465787</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8623.737808465787</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-8620.652108465787</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-8620.652108465787</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8233.247108465786</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-10559.26100846579</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-10420.14820846579</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-10367.69794973357</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10366.25174973357</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10348.31004973357</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10476.07094973357</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10682.98294973357</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2994.256549733574</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2440.857527959612</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>7956.632772040388</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>6683.515491417771</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10239.38139141777</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>12706.14079141777</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1289.53952840705</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1289.53952840705</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-6913.397293954842</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-7013.397293954842</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-6282.063593954842</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-10059.69123240187</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-10059.69123240187</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-10010.55953240187</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-10015.76113240187</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-7585.01503240187</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-7585.01503240187</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-7628.864332401869</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-10279.72573240187</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-10007.26493240187</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-9998.211532401869</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-9948.67813240187</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-9952.227932401871</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-10158.01703240187</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-15612.75673240187</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>10882.7325218883</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>12571.59354612885</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>12571.59354612885</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>9780.716883621088</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>10231.04128362109</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>10219.24158362109</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>8219.241483621088</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>8919.241483621088</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>9741.97738362109</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>14603.56665841985</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>15613.09715841985</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>15024.37145841985</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>16373.54188362109</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>14649.11388362109</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>14100.03388362109</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>16043.09088362109</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>16042.08998362109</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>15922.60543160871</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>15589.81723160871</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>13421.47093160871</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>13421.66623160871</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>13399.68153160871</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>12005.80643160871</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>13585.36663160871</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>11540.56543160871</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>11385.56543160871</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>12122.20333160871</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>11249.12993160871</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>13173.99893160871</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>12308.95203160871</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>12458.95203160871</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>16431.57073160871</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>16238.94903160871</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>15467.06853160871</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>10964.02893160871</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>10844.64483160871</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>11390.43683160871</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>11392.43683160871</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>11114.28893160871</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>11087.28893160871</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>11088.28893160871</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>11027.06823160871</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>12074.95553160871</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>11685.77903160871</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>8141.542531608714</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>8141.542531608714</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>8487.989231608713</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>8104.667531608713</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>8104.667531608713</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>8651.326531608713</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>5513.142931608712</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>6280.558431608712</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>1300.824031608712</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>1500.679946867224</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>893.5810468672241</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>1950.722142513912</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2278.533997637423</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>2283.533524898729</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2335.665952519683</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>1283.504952519683</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>1284.504952519683</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>7477.931752519683</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>7433.527052519683</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>7434.527052519683</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>7435.527052519683</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>7438.527052519683</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>7440.777052519683</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>7440.777052519683</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>7426.777052519683</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>7301.075752519683</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>7300.075752519683</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>7294.152952519683</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>7294.152952519683</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>7105.626752519683</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>8338.107021924072</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>8036.107021924072</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>4771.429821924072</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>4771.179821924072</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>4772.179821924072</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>4772.179821924072</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>4696.529821924072</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>3700.392821924072</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>4089.976321924073</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2264.749178075927</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2056.292778075927</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2077.123878075927</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2077.123878075927</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2233.650078075927</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2033.650078075927</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1988.480878075927</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1709.034078075927</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3350.314478075927</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-7322.234578075926</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-7058.409478075926</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-6749.026978075926</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-7085.668278075927</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-7085.478478075926</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-6852.842575669029</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-6796.803775669029</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-6757.004775669029</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-6699.502075669029</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-7523.202275669029</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-6260.48487566903</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-6727.78027566903</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-6459.59117566903</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-7283.47107566903</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-7262.627775669031</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17380,11 +17380,17 @@
         <v>-19184.86959434161</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3001</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17419,17 @@
         <v>-13592.79239434161</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2980</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17458,17 @@
         <v>-14753.82779434161</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2999</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17497,17 @@
         <v>9746.760505658389</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2995</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17540,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17577,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17614,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17651,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17688,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17725,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17762,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +17799,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +17836,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +17873,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +17910,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +17947,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +17984,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18021,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18058,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18095,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18132,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18169,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18206,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18243,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18280,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18317,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18354,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18391,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18428,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18465,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18502,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18539,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +18576,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18613,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18650,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18687,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18724,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +18761,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +18798,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18835,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18872,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +18909,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +18946,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +18983,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19020,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19057,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19094,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19131,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19168,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +19205,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +19242,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +19279,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +19316,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +19353,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +19390,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +19427,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19464,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19501,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19538,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19575,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +19612,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19649,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +19686,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19723,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19760,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19797,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19834,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19871,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19908,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19945,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +19982,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20019,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20056,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +20093,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +20130,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +20167,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +20204,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +20241,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +20278,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20315,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20352,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20389,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20426,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20463,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20500,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20537,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20574,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20611,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20648,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20685,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20722,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20759,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20796,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20833,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20870,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20907,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20944,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20981,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21018,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +21055,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +21092,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +21129,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +21166,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +21203,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +21240,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21277,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +21314,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21351,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21388,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21425,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21462,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21499,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21536,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21573,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21610,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21647,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21684,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21721,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21758,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21795,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21832,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21865,17 @@
         <v>3106.22461559677</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>2966</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21904,17 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>2968</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21943,17 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>2966</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21982,17 @@
         <v>3089.746015596771</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>2966</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,15 +22021,17 @@
         <v>3098.730915596771</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>2972</v>
       </c>
-      <c r="J640" t="n">
-        <v>2972</v>
-      </c>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,17 +22060,15 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>2974</v>
       </c>
-      <c r="J641" t="n">
-        <v>2972</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L641" t="n">
@@ -21583,17 +22099,15 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>2965</v>
       </c>
-      <c r="J642" t="n">
-        <v>2972</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L642" t="n">
@@ -21624,15 +22138,17 @@
         <v>3184.521115596771</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>2965</v>
       </c>
-      <c r="J643" t="n">
-        <v>2965</v>
-      </c>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21661,17 +22177,15 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>2981</v>
       </c>
-      <c r="J644" t="n">
-        <v>2965</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L644" t="n">
@@ -21702,17 +22216,15 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>2990</v>
       </c>
-      <c r="J645" t="n">
-        <v>2965</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L645" t="n">
@@ -21743,15 +22255,17 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>2990</v>
       </c>
-      <c r="J646" t="n">
-        <v>2990</v>
-      </c>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21780,15 +22294,15 @@
         <v>4559.840915596771</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
         <v>2990</v>
       </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L647" t="n">
@@ -21819,14 +22333,12 @@
         <v>4472.840915596771</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>2991</v>
       </c>
-      <c r="J648" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21860,14 +22372,12 @@
         <v>4775.325415596772</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>2983</v>
       </c>
-      <c r="J649" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21901,12 +22411,12 @@
         <v>3850.863415596772</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>2990</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21940,12 +22450,12 @@
         <v>3780.410736596436</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>2990</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>2987</v>
+      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21979,12 +22489,12 @@
         <v>3932.950832238407</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>2990</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>2981</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22021,9 +22531,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22060,9 +22568,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22099,9 +22605,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22138,9 +22642,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22177,9 +22679,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22216,9 +22716,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22255,9 +22753,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22294,9 +22790,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>2990</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22308,6 +22802,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest LINK.xlsx
+++ b/BackTest/2020-01-20 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1936,7 +1936,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-8233.247108465786</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-8928.003108465788</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9069.858408465787</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-11547.05290846579</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-10485.46850846579</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-10420.14820846579</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-10367.69794973357</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10366.25174973357</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10348.31004973357</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10476.07094973357</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-10806.83174973357</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10682.98294973357</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-10632.98294973357</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-10603.64524973357</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-10788.70654973357</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-11035.41024973357</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-10935.41024973357</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2994.256549733574</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2995.256549733574</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5263.581749733574</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5263.331749733574</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5262.331749733574</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-5278.507744557255</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-5012.045944557255</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-5432.042144557255</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4533.031144557255</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4318.310944557255</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4178.655944557255</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4243.313144557254</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4080.107027959612</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4257.665727959612</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-5911.072027959612</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4794.780627959612</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4792.935427959612</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4449.488727959611</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>12571.59354612885</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>9780.716883621088</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>10231.04128362109</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>10219.24158362109</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>8219.241483621088</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>8919.241483621088</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>9741.97738362109</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>14603.56665841985</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>15613.09715841985</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>15024.37145841985</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>16373.54188362109</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>14649.11388362109</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>14100.03388362109</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>16043.09088362109</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>16042.08998362109</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>15922.60543160871</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>15589.81723160871</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>13421.47093160871</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>13421.66623160871</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>13585.36663160871</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>11540.56543160871</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>11385.56543160871</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>12122.20333160871</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>10430.45123160871</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>11249.12993160871</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>13173.99893160871</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>12308.95203160871</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>12458.95203160871</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>16431.57073160871</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>16238.94903160871</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>11087.28893160871</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>11088.28893160871</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>11027.06823160871</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>12074.95553160871</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>11713.46973160871</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>11685.77903160871</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>8141.542531608714</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>8141.542531608714</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>8487.989231608713</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>8486.989231608713</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>8104.667531608713</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>8104.667531608713</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>6280.558431608712</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>1300.824031608712</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>1500.679946867224</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>893.5810468672241</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>1950.722142513912</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>2278.533997637423</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>2283.533524898729</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2335.665952519683</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>1283.504952519683</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>1284.504952519683</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>7477.931752519683</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>7433.527052519683</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>7434.527052519683</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>7435.527052519683</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>7438.527052519683</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>7440.777052519683</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>7440.777052519683</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>7294.152952519683</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>7294.152952519683</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>7105.626752519683</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>8338.107021924072</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>8036.107021924072</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>5033.107021924072</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>4771.429821924072</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>4771.179821924072</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>4772.179821924072</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>4772.179821924072</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>4696.529821924072</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>3700.392821924072</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>4027.812821924073</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>4089.976321924073</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-2264.749178075927</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-2056.292778075927</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-2077.123878075927</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2077.123878075927</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2233.650078075927</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-2033.650078075927</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1988.480878075927</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1709.034078075927</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3350.314478075927</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-7322.234578075926</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-7058.409478075926</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-6749.026978075926</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-7085.668278075927</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-7085.478478075926</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-6852.842575669029</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-6796.803775669029</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-6757.004775669029</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-6699.502075669029</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-7523.202275669029</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-6260.48487566903</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-6727.78027566903</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-6459.59117566903</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-7283.47107566903</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-7262.627775669031</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17380,504 +17380,460 @@
         <v>-19184.86959434161</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>2980</v>
+      </c>
+      <c r="C516" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2969</v>
+      </c>
+      <c r="F516" t="n">
+        <v>5592.0772</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-13592.79239434161</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="n">
+        <v>1</v>
+      </c>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>2999</v>
+      </c>
+      <c r="C517" t="n">
+        <v>2995</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2995</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1161.0354</v>
+      </c>
+      <c r="G517" t="n">
+        <v>-14753.82779434161</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C518" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D518" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2970</v>
+      </c>
+      <c r="F518" t="n">
+        <v>24500.5883</v>
+      </c>
+      <c r="G518" t="n">
+        <v>9746.760505658389</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>2975</v>
+      </c>
+      <c r="C519" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D519" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2975</v>
+      </c>
+      <c r="F519" t="n">
+        <v>303.5109</v>
+      </c>
+      <c r="G519" t="n">
+        <v>9746.760505658389</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="n">
+        <v>1</v>
+      </c>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D520" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E520" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F520" t="n">
+        <v>37.9736</v>
+      </c>
+      <c r="G520" t="n">
+        <v>9746.760505658389</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>2991</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D521" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2970</v>
+      </c>
+      <c r="F521" t="n">
+        <v>8431.6194</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1315.141105658389</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>2999</v>
+      </c>
+      <c r="C522" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2998</v>
+      </c>
+      <c r="F522" t="n">
+        <v>333.7735</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1315.141105658389</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>2998</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2977</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2999</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2976</v>
+      </c>
+      <c r="F523" t="n">
+        <v>2695.8269</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-1380.685794341611</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>2996</v>
+      </c>
+      <c r="C524" t="n">
+        <v>2987</v>
+      </c>
+      <c r="D524" t="n">
+        <v>2996</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2987</v>
+      </c>
+      <c r="F524" t="n">
+        <v>5944.4232</v>
+      </c>
+      <c r="G524" t="n">
+        <v>4563.737405658389</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2994</v>
+      </c>
+      <c r="D525" t="n">
+        <v>2995</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F525" t="n">
+        <v>3389.7613</v>
+      </c>
+      <c r="G525" t="n">
+        <v>7953.49870565839</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>2999</v>
+      </c>
+      <c r="C526" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D526" t="n">
+        <v>3007</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2999</v>
+      </c>
+      <c r="F526" t="n">
+        <v>2983.2905</v>
+      </c>
+      <c r="G526" t="n">
+        <v>10936.78920565839</v>
+      </c>
+      <c r="H526" t="n">
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2994</v>
+      </c>
+      <c r="J526" t="n">
+        <v>2994</v>
+      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
         <v>3001</v>
       </c>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
+      <c r="C527" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D527" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2999</v>
+      </c>
+      <c r="F527" t="n">
+        <v>1935.5331</v>
+      </c>
+      <c r="G527" t="n">
+        <v>9001.256105658389</v>
+      </c>
+      <c r="H527" t="n">
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3007</v>
+      </c>
+      <c r="J527" t="n">
+        <v>2994</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C528" t="n">
+        <v>3017</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3028</v>
+      </c>
+      <c r="E528" t="n">
+        <v>2982</v>
+      </c>
+      <c r="F528" t="n">
+        <v>4463.8631</v>
+      </c>
+      <c r="G528" t="n">
+        <v>13465.11920565839</v>
+      </c>
+      <c r="H528" t="n">
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2999</v>
+      </c>
+      <c r="J528" t="n">
+        <v>2994</v>
+      </c>
+      <c r="K528" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L515" t="n">
-        <v>1</v>
-      </c>
-      <c r="M515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>2980</v>
-      </c>
-      <c r="C516" t="n">
-        <v>2999</v>
-      </c>
-      <c r="D516" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E516" t="n">
-        <v>2969</v>
-      </c>
-      <c r="F516" t="n">
-        <v>5592.0772</v>
-      </c>
-      <c r="G516" t="n">
-        <v>-13592.79239434161</v>
-      </c>
-      <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>2980</v>
-      </c>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L516" t="n">
-        <v>1</v>
-      </c>
-      <c r="M516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>2999</v>
-      </c>
-      <c r="C517" t="n">
-        <v>2995</v>
-      </c>
-      <c r="D517" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E517" t="n">
-        <v>2995</v>
-      </c>
-      <c r="F517" t="n">
-        <v>1161.0354</v>
-      </c>
-      <c r="G517" t="n">
-        <v>-14753.82779434161</v>
-      </c>
-      <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>2999</v>
-      </c>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>2995</v>
-      </c>
-      <c r="C518" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D518" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E518" t="n">
-        <v>2970</v>
-      </c>
-      <c r="F518" t="n">
-        <v>24500.5883</v>
-      </c>
-      <c r="G518" t="n">
-        <v>9746.760505658389</v>
-      </c>
-      <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>2995</v>
-      </c>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
-      <c r="M518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>2975</v>
-      </c>
-      <c r="C519" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D519" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E519" t="n">
-        <v>2975</v>
-      </c>
-      <c r="F519" t="n">
-        <v>303.5109</v>
-      </c>
-      <c r="G519" t="n">
-        <v>9746.760505658389</v>
-      </c>
-      <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
-      <c r="M519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C520" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D520" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E520" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F520" t="n">
-        <v>37.9736</v>
-      </c>
-      <c r="G520" t="n">
-        <v>9746.760505658389</v>
-      </c>
-      <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>2991</v>
-      </c>
-      <c r="C521" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D521" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E521" t="n">
-        <v>2970</v>
-      </c>
-      <c r="F521" t="n">
-        <v>8431.6194</v>
-      </c>
-      <c r="G521" t="n">
-        <v>1315.141105658389</v>
-      </c>
-      <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>2999</v>
-      </c>
-      <c r="C522" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D522" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E522" t="n">
-        <v>2998</v>
-      </c>
-      <c r="F522" t="n">
-        <v>333.7735</v>
-      </c>
-      <c r="G522" t="n">
-        <v>1315.141105658389</v>
-      </c>
-      <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>2998</v>
-      </c>
-      <c r="C523" t="n">
-        <v>2977</v>
-      </c>
-      <c r="D523" t="n">
-        <v>2999</v>
-      </c>
-      <c r="E523" t="n">
-        <v>2976</v>
-      </c>
-      <c r="F523" t="n">
-        <v>2695.8269</v>
-      </c>
-      <c r="G523" t="n">
-        <v>-1380.685794341611</v>
-      </c>
-      <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>2996</v>
-      </c>
-      <c r="C524" t="n">
-        <v>2987</v>
-      </c>
-      <c r="D524" t="n">
-        <v>2996</v>
-      </c>
-      <c r="E524" t="n">
-        <v>2987</v>
-      </c>
-      <c r="F524" t="n">
-        <v>5944.4232</v>
-      </c>
-      <c r="G524" t="n">
-        <v>4563.737405658389</v>
-      </c>
-      <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>2995</v>
-      </c>
-      <c r="C525" t="n">
-        <v>2994</v>
-      </c>
-      <c r="D525" t="n">
-        <v>2995</v>
-      </c>
-      <c r="E525" t="n">
-        <v>2993</v>
-      </c>
-      <c r="F525" t="n">
-        <v>3389.7613</v>
-      </c>
-      <c r="G525" t="n">
-        <v>7953.49870565839</v>
-      </c>
-      <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>2999</v>
-      </c>
-      <c r="C526" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D526" t="n">
-        <v>3007</v>
-      </c>
-      <c r="E526" t="n">
-        <v>2999</v>
-      </c>
-      <c r="F526" t="n">
-        <v>2983.2905</v>
-      </c>
-      <c r="G526" t="n">
-        <v>10936.78920565839</v>
-      </c>
-      <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>3001</v>
-      </c>
-      <c r="C527" t="n">
-        <v>2999</v>
-      </c>
-      <c r="D527" t="n">
-        <v>3001</v>
-      </c>
-      <c r="E527" t="n">
-        <v>2999</v>
-      </c>
-      <c r="F527" t="n">
-        <v>1935.5331</v>
-      </c>
-      <c r="G527" t="n">
-        <v>9001.256105658389</v>
-      </c>
-      <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C528" t="n">
-        <v>3017</v>
-      </c>
-      <c r="D528" t="n">
-        <v>3028</v>
-      </c>
-      <c r="E528" t="n">
-        <v>2982</v>
-      </c>
-      <c r="F528" t="n">
-        <v>4463.8631</v>
-      </c>
-      <c r="G528" t="n">
-        <v>13465.11920565839</v>
-      </c>
-      <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17906,10 +17862,14 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3017</v>
+      </c>
+      <c r="J529" t="n">
+        <v>2994</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17943,10 +17903,14 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3027</v>
+      </c>
+      <c r="J530" t="n">
+        <v>2994</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17983,7 +17947,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>2994</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18020,7 +17986,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>2994</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18057,7 +18025,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>2994</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18094,7 +18064,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>2994</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18131,7 +18103,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>2994</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,7 +18142,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>2994</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18205,7 +18181,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>2994</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18242,7 +18220,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2994</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18279,7 +18259,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>2994</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18316,7 +18298,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>2994</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18353,7 +18337,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>2994</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18390,7 +18376,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>2994</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18427,7 +18415,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>2994</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18464,7 +18454,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>2994</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,7 +18493,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2994</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18538,7 +18532,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2994</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18575,7 +18571,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2994</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18612,7 +18610,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2994</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,7 +18649,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2994</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18686,7 +18688,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>2994</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18723,7 +18727,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>2994</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18760,7 +18766,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2994</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18797,7 +18805,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>2994</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,7 +18844,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>2994</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18871,7 +18883,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>2994</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18908,7 +18922,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>2994</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18945,7 +18961,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>2994</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18982,7 +19000,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>2994</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19019,7 +19039,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>2994</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19056,7 +19078,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2994</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19093,7 +19117,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>2994</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19130,7 +19156,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>2994</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19167,7 +19195,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>2994</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19204,7 +19234,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2994</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,7 +19273,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>2994</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19278,7 +19312,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>2994</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19315,7 +19351,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>2994</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19352,7 +19390,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>2994</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19389,7 +19429,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>2994</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,7 +19468,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>2994</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19463,7 +19507,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>2994</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19500,7 +19546,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>2994</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19537,7 +19585,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2994</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19574,7 +19624,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2994</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19611,7 +19663,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2994</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19648,7 +19702,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2994</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19685,7 +19741,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2994</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19722,7 +19780,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2994</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19759,7 +19819,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2994</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19796,7 +19858,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2994</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19833,7 +19897,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2994</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19870,7 +19936,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2994</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19907,7 +19975,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2994</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19944,7 +20014,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>2994</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19981,7 +20053,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2994</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20018,7 +20092,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2994</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20055,7 +20131,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>2994</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,7 +20170,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>2994</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20129,7 +20209,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>2994</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20166,7 +20248,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>2994</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20203,7 +20287,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>2994</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20240,7 +20326,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>2994</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20277,7 +20365,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>2994</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20314,7 +20404,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>2994</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20351,7 +20443,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>2994</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20388,7 +20482,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>2994</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20425,7 +20521,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>2994</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20462,7 +20560,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>2994</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20499,7 +20599,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>2994</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20536,7 +20638,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>2994</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20573,7 +20677,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>2994</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20610,7 +20716,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>2994</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20647,7 +20755,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>2994</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,7 +20794,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>2994</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20721,7 +20833,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>2994</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20758,7 +20872,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>2994</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20795,7 +20911,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>2994</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20832,7 +20950,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>2994</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20869,7 +20989,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>2994</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20906,7 +21028,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>2994</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20943,7 +21067,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>2994</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20980,7 +21106,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>2994</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21017,7 +21145,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>2994</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,7 +21184,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>2994</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21091,7 +21223,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>2994</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21128,7 +21262,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>2994</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21165,7 +21301,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>2994</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21202,7 +21340,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>2994</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21239,7 +21379,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>2994</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21276,7 +21418,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>2994</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21313,7 +21457,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>2994</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21350,7 +21496,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>2994</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21387,7 +21535,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>2994</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21424,7 +21574,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2994</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21461,7 +21613,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2994</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21498,7 +21652,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2994</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,7 +21691,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2994</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21572,7 +21730,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2994</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21609,7 +21769,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2994</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21646,7 +21808,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2994</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21683,7 +21847,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2994</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21720,7 +21886,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2994</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21757,7 +21925,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2994</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21794,7 +21964,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2994</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21831,7 +22003,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2994</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21865,12 +22039,12 @@
         <v>3106.22461559677</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>2966</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>2994</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21904,12 +22078,12 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>2968</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>2994</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21943,12 +22117,12 @@
         <v>3088.63601559677</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>2966</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>2994</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21982,12 +22156,12 @@
         <v>3089.746015596771</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>2966</v>
-      </c>
-      <c r="J639" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>2994</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22021,12 +22195,12 @@
         <v>3098.730915596771</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>2972</v>
-      </c>
-      <c r="J640" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>2994</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22060,12 +22234,12 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>2974</v>
-      </c>
-      <c r="J641" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>2994</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22099,12 +22273,12 @@
         <v>1833.826615596771</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>2965</v>
-      </c>
-      <c r="J642" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>2994</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22138,12 +22312,12 @@
         <v>3184.521115596771</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>2965</v>
-      </c>
-      <c r="J643" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>2994</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22177,12 +22351,12 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>2981</v>
-      </c>
-      <c r="J644" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>2994</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22216,12 +22390,12 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>2990</v>
-      </c>
-      <c r="J645" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>2994</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22255,12 +22429,12 @@
         <v>3696.284615596771</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>2990</v>
-      </c>
-      <c r="J646" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>2994</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22294,12 +22468,12 @@
         <v>4559.840915596771</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>2990</v>
-      </c>
-      <c r="J647" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>2994</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22333,12 +22507,12 @@
         <v>4472.840915596771</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>2991</v>
-      </c>
-      <c r="J648" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>2994</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22372,12 +22546,12 @@
         <v>4775.325415596772</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>2983</v>
-      </c>
-      <c r="J649" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>2994</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22411,12 +22585,12 @@
         <v>3850.863415596772</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>2994</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22450,12 +22624,12 @@
         <v>3780.410736596436</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>2987</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>2994</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22489,12 +22663,12 @@
         <v>3932.950832238407</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>2981</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>2994</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22531,7 +22705,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>2994</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22568,7 +22744,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>2994</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22605,7 +22783,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>2994</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22642,7 +22822,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>2994</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22679,7 +22861,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>2994</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22716,7 +22900,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>2994</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22753,7 +22939,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>2994</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22790,7 +22978,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>2994</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22802,6 +22992,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest LINK.xlsx
+++ b/BackTest/2020-01-20 BackTest LINK.xlsx
@@ -616,10 +616,14 @@
         <v>-14596.5581</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3019</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3019</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +653,19 @@
         <v>-14596.5581</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3029</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3019</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +697,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>3019</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -880,10 +898,14 @@
         <v>-10692.515</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3032</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3032</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +935,19 @@
         <v>-10692.515</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3032</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +976,19 @@
         <v>-10692.515</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3032</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1017,14 @@
         <v>-10413.9288</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3033</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1015,8 +1057,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3033</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1096,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3033</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1111,10 +1165,14 @@
         <v>-9434.964600000005</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3029</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3029</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1144,11 +1202,19 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3029</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1243,19 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3029</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,10 +1284,14 @@
         <v>-9428.174900000005</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3040</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1243,11 +1321,19 @@
         <v>-9228.206200000006</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3040</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1362,19 @@
         <v>-9227.506200000005</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3048</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3040</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1936,7 +2030,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2063,7 @@
         <v>-8738.998608465787</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2096,7 @@
         <v>-8233.247108465786</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2129,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2162,7 @@
         <v>-8219.310308465787</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2195,7 @@
         <v>-8928.003108465788</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2228,7 @@
         <v>-9069.858408465787</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2261,7 @@
         <v>-11547.05290846579</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2294,7 @@
         <v>-10485.46850846579</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2299,7 +2393,7 @@
         <v>-10420.14820846579</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2426,7 @@
         <v>-10367.69794973357</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2459,7 @@
         <v>-10366.25174973357</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2492,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2525,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2558,7 @@
         <v>-10352.17424973357</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2591,7 @@
         <v>-10348.31004973357</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2624,7 @@
         <v>-10476.07094973357</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2657,7 @@
         <v>-10806.83174973357</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2690,7 @@
         <v>-10682.98294973357</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2723,7 @@
         <v>-10632.98294973357</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2756,7 @@
         <v>-10603.64524973357</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2789,7 @@
         <v>-10788.70654973357</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2822,7 @@
         <v>-11035.41024973357</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2855,7 @@
         <v>-10935.41024973357</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2888,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2921,7 @@
         <v>-9541.375749733574</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2954,7 @@
         <v>-2994.256549733574</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2987,7 @@
         <v>-2995.256549733574</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3020,7 @@
         <v>-5263.581749733574</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3053,7 @@
         <v>-5263.331749733574</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3086,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3119,7 @@
         <v>-5261.331749733574</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3152,7 @@
         <v>-5262.331749733574</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3185,7 @@
         <v>-5278.507744557255</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3218,7 @@
         <v>-5012.045944557255</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3251,7 @@
         <v>-5432.042144557255</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3284,7 @@
         <v>-4533.031144557255</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3317,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3350,7 @@
         <v>-4661.409544557255</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3383,7 @@
         <v>-4318.310944557255</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3416,7 @@
         <v>-4178.655944557255</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3449,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3482,7 @@
         <v>-3152.789744557255</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3515,7 @@
         <v>-4243.313144557254</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3548,7 @@
         <v>-4080.107027959612</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3581,7 @@
         <v>-4257.665727959612</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3614,7 @@
         <v>-5911.072027959612</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3647,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3680,7 @@
         <v>-4824.739927959612</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3713,7 @@
         <v>-4794.780627959612</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3746,7 @@
         <v>-4792.935427959612</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3779,7 @@
         <v>-4449.488727959611</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -9658,7 +9752,7 @@
         <v>12571.59354612885</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9785,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9818,7 @@
         <v>12911.69124612885</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9851,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9884,7 @@
         <v>11280.04118362109</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9917,7 @@
         <v>9780.716883621088</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9950,7 @@
         <v>10231.04128362109</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9983,7 @@
         <v>10219.24158362109</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10016,7 @@
         <v>8219.241483621088</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10021,7 +10115,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10148,7 @@
         <v>9735.055683621089</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10181,7 @@
         <v>9741.97738362109</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10214,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10247,7 @@
         <v>11743.21028362109</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10280,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10313,7 @@
         <v>11713.21028362109</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10346,7 @@
         <v>14603.56665841985</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10379,7 @@
         <v>15613.09715841985</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10412,7 @@
         <v>15024.37145841985</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10445,7 @@
         <v>16373.54188362109</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10478,7 @@
         <v>14649.11388362109</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10511,7 @@
         <v>14100.03388362109</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10544,7 @@
         <v>16043.09088362109</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10577,7 @@
         <v>16042.08998362109</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10610,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10643,7 @@
         <v>15926.49153160871</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10676,7 @@
         <v>15922.60543160871</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10709,7 @@
         <v>15589.81723160871</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10742,7 @@
         <v>13421.47093160871</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10775,7 @@
         <v>13421.66623160871</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10808,7 @@
         <v>13399.68153160871</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10841,7 @@
         <v>12005.80643160871</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10874,7 @@
         <v>13585.36663160871</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10907,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10940,7 @@
         <v>13363.56773160871</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10973,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11006,7 @@
         <v>10355.89523160871</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10978,7 +11072,7 @@
         <v>11385.56543160871</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11176,7 +11270,7 @@
         <v>12308.95203160871</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11303,7 @@
         <v>12458.95203160871</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11336,7 @@
         <v>16431.57073160871</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11369,7 @@
         <v>16238.94903160871</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11402,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11435,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11468,7 @@
         <v>16098.94903160871</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11501,7 @@
         <v>15167.06853160871</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11534,7 @@
         <v>15467.06853160871</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11506,7 +11600,7 @@
         <v>10844.64483160871</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -17215,11 +17309,17 @@
         <v>-15666.28319434161</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>3111</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17348,17 @@
         <v>-21001.40299434161</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>3057</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17387,17 @@
         <v>-14450.52009434161</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3010</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17426,17 @@
         <v>-15304.18069434161</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3044</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17465,17 @@
         <v>-15304.18069434161</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3001</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17504,17 @@
         <v>-19184.86959434161</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3001</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17543,17 @@
         <v>-13592.79239434161</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2980</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17582,17 @@
         <v>-14753.82779434161</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2999</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17621,17 @@
         <v>9746.760505658389</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2995</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17664,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17701,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17738,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17775,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17812,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17849,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17886,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,15 +17919,15 @@
         <v>10936.78920565839</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>2994</v>
-      </c>
-      <c r="J526" t="n">
-        <v>2994</v>
-      </c>
-      <c r="K526" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,17 +17956,13 @@
         <v>9001.256105658389</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>3007</v>
-      </c>
-      <c r="J527" t="n">
-        <v>2994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L527" t="n">
@@ -17821,17 +17993,13 @@
         <v>13465.11920565839</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>2999</v>
-      </c>
-      <c r="J528" t="n">
-        <v>2994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L528" t="n">
@@ -17862,14 +18030,10 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>3017</v>
-      </c>
-      <c r="J529" t="n">
-        <v>2994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17903,14 +18067,10 @@
         <v>14980.05830565839</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>3027</v>
-      </c>
-      <c r="J530" t="n">
-        <v>2994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,9 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,9 +18144,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,9 +18181,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,9 +18218,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,9 +18255,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +18292,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,9 +18329,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,9 +18366,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,9 +18403,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,9 +18440,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +18477,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,9 +18514,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,9 +18551,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,9 +18588,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +18625,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,9 +18662,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,9 +18699,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,9 +18736,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,9 +18773,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18810,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,9 +18847,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,9 +18884,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,9 +18921,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +18958,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18883,9 +18995,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +19032,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,9 +19069,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,9 +19106,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +19143,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,9 +19180,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,9 +19217,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,9 +19254,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,9 +19291,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +19328,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,9 +19365,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +19402,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19351,9 +19439,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,9 +19476,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,9 +19513,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,9 +19550,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19507,9 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19546,9 +19624,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,9 +19661,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19624,9 +19698,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19663,9 +19735,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,9 +19772,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,9 +19846,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,9 +19883,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,9 +19920,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,9 +19957,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,9 +19994,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,9 +20031,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20014,9 +20068,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,9 +20105,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +20142,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20131,9 +20179,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,9 +20216,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20209,9 +20253,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20248,9 +20290,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +20327,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20326,9 +20364,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,9 +20401,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20404,9 +20438,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +20475,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20482,9 +20512,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20521,9 +20549,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,9 +20586,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,9 +20623,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +20660,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,9 +20697,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +20734,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,9 +20771,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,9 +20808,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +20845,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,9 +20882,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +20919,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20950,9 +20956,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,9 +20993,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +21030,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +21067,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +21104,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +21141,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,9 +21178,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +21215,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +21289,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +21326,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,9 +21363,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,9 +21400,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,9 +21437,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,9 +21474,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,9 +21511,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,9 +21548,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,9 +21585,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21652,9 +21622,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +21659,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,9 +21696,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,9 +21733,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,9 +21770,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21847,9 +21807,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,9 +21844,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +21881,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21964,9 +21918,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,9 +21955,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +21992,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22081,9 +22029,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +22066,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,9 +22103,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22198,9 +22140,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,9 +22177,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,9 +22214,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,9 +22251,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,9 +22288,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22393,9 +22325,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +22362,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22471,9 +22399,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22510,9 +22436,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22549,9 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,9 +22510,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22627,9 +22547,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22666,9 +22584,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,9 +22621,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,9 +22658,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22822,9 +22732,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22861,9 +22769,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,9 +22806,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22939,9 +22843,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,9 +22880,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>2994</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
